--- a/Data Files/Thai Budget.xlsx
+++ b/Data Files/Thai Budget.xlsx
@@ -39,13 +39,13 @@
     <t>Bangkok</t>
   </si>
   <si>
-    <t>Chonburi</t>
-  </si>
-  <si>
     <t>Nonthaburi</t>
   </si>
   <si>
-    <t>Privince</t>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>Samut Prakan</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Sales" displayName="Sales" ref="B3:D12" totalsRowShown="0">
   <autoFilter ref="B3:D12"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Privince"/>
+    <tableColumn id="1" name="Province"/>
     <tableColumn id="2" name="Brand"/>
     <tableColumn id="4" name="Budget" dataCellStyle="Comma"/>
   </tableColumns>
@@ -391,7 +391,7 @@
   <dimension ref="B3:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -403,7 +403,7 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
         <v>0</v>
@@ -447,7 +447,7 @@
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>1</v>
@@ -458,7 +458,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
         <v>2</v>
@@ -469,7 +469,7 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
         <v>3</v>
@@ -480,7 +480,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="s">
         <v>1</v>
@@ -491,7 +491,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
         <v>2</v>
@@ -502,7 +502,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>3</v>
